--- a/static/Deploy_agent/1587894125.xlsx
+++ b/static/Deploy_agent/1587894125.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\google download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DjangoProject\static\Deploy_agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5508"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -42,35 +42,38 @@
     <t>root</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>10.20.10.20</t>
+    <t>10.20.10.22</t>
+  </si>
+  <si>
+    <t>10.20.10.23</t>
+  </si>
+  <si>
+    <t>10.20.10.24</t>
+  </si>
+  <si>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>123459</t>
+  </si>
+  <si>
+    <t>123460</t>
+  </si>
+  <si>
+    <t>10.20.10.144</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.20.10.21</t>
-  </si>
-  <si>
-    <t>10.20.10.22</t>
-  </si>
-  <si>
-    <t>10.20.10.23</t>
-  </si>
-  <si>
-    <t>10.20.10.24</t>
-  </si>
-  <si>
-    <t>123457</t>
-  </si>
-  <si>
-    <t>123458</t>
-  </si>
-  <si>
-    <t>123459</t>
-  </si>
-  <si>
-    <t>123460</t>
+    <t>bsm123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.20.10.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,15 +460,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,9 +485,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -496,12 +499,12 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -513,12 +516,12 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -530,12 +533,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -547,12 +550,12 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -564,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +575,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 B2 D2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 B2 D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>